--- a/SE2223_60157_60201_60226_60479_60749/Phase_2/Sprint1/SprintBacklog.xlsx
+++ b/SE2223_60157_60201_60226_60479_60749/Phase_2/Sprint1/SprintBacklog.xlsx
@@ -115,7 +115,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -134,6 +134,11 @@
       <b/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -174,12 +179,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -195,6 +200,12 @@
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1469,11 +1480,11 @@
         <v>24</v>
       </c>
       <c r="C73" s="5"/>
-      <c r="D73" s="6"/>
+      <c r="D73" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E73" s="5"/>
-      <c r="F73" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="F73" s="6"/>
       <c r="G73" s="5" t="s">
         <v>11</v>
       </c>
@@ -1654,6 +1665,114 @@
       <c r="G85" s="5" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="8"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="8"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="8"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="8"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="8"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="8"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="8"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="8"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="8"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="8"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="8"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="8"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="8"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="8"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="8"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="8"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="8"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="8"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="8"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="8"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="8"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="8"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="8"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="8"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="8"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="8"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="8"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="8"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="8"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="8"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="8"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="8"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="8"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="8"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="8"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">
